--- a/tables/data_choose.xlsx
+++ b/tables/data_choose.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0123456789abcdef</t>
+          <t>000000</t>
         </is>
       </c>
     </row>
